--- a/ライター個人請求書.xlsx
+++ b/ライター個人請求書.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13194" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13194" uniqueCount="124">
   <si>
     <t>請求番号: 1234567</t>
   </si>
@@ -60,7 +60,7 @@
     <t>御　請　求　書</t>
   </si>
   <si>
-    <t>平成26年5月30日</t>
+    <t>平成26年6月2日</t>
   </si>
   <si>
     <t>a</t>
@@ -108,7 +108,7 @@
     <t>合計金額</t>
   </si>
   <si>
-    <t>¥18,856</t>
+    <t>¥18,855</t>
   </si>
   <si>
     <t> </t>
@@ -132,7 +132,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>原稿料(5月分)</t>
+    <t>原稿料(6月分)</t>
   </si>
   <si>
     <t>7</t>
@@ -177,7 +177,7 @@
     <t>源泉徴収税(10.21%)</t>
   </si>
   <si>
-    <t>¥-2,144</t>
+    <t>¥-2,145</t>
   </si>
   <si>
     <t>合計</t>
@@ -189,7 +189,7 @@
     <t>その他</t>
   </si>
   <si>
-    <t>¥21,550</t>
+    <t>¥22,080</t>
   </si>
   <si>
     <t>12</t>
@@ -201,19 +201,22 @@
     <t>¥24,000</t>
   </si>
   <si>
-    <t>¥-2,450</t>
+    <t>消費税(8%)</t>
+  </si>
+  <si>
+    <t>¥-1,920</t>
   </si>
   <si>
     <t>岩田麻奈未</t>
   </si>
   <si>
-    <t>¥3,592</t>
+    <t>¥3,680</t>
   </si>
   <si>
     <t>¥4,000</t>
   </si>
   <si>
-    <t>¥-408</t>
+    <t>¥-320</t>
   </si>
   <si>
     <t>脇田尚揮</t>
@@ -237,10 +240,10 @@
     <t>樹乃</t>
   </si>
   <si>
-    <t>¥2,694</t>
+    <t>¥2,693</t>
   </si>
   <si>
-    <t>¥-306</t>
+    <t>¥-307</t>
   </si>
   <si>
     <t>桜井結衣</t>
@@ -249,40 +252,46 @@
     <t>三菱東京ＵＦＪ銀行</t>
   </si>
   <si>
-    <t>¥8,979</t>
+    <t>¥8,978</t>
   </si>
   <si>
     <t>¥10,000</t>
   </si>
   <si>
-    <t>¥-1,021</t>
+    <t>¥-1,022</t>
   </si>
   <si>
     <t>斎藤可奈子</t>
   </si>
   <si>
-    <t>¥3,143</t>
+    <t>¥3,142</t>
   </si>
   <si>
     <t>¥3,500</t>
   </si>
   <si>
-    <t>¥-357</t>
+    <t>¥-358</t>
   </si>
   <si>
     <t>梶原まさゆめ</t>
   </si>
   <si>
-    <t>¥10,775</t>
+    <t>¥10,774</t>
   </si>
   <si>
     <t>¥12,000</t>
   </si>
   <si>
-    <t>¥-1,225</t>
+    <t>¥-1,226</t>
   </si>
   <si>
     <t>村上カナコ</t>
+  </si>
+  <si>
+    <t>¥3,591</t>
+  </si>
+  <si>
+    <t>¥-409</t>
   </si>
   <si>
     <t>神田和花</t>
@@ -294,10 +303,10 @@
     <t>ヨダエリ</t>
   </si>
   <si>
-    <t>¥4,490</t>
+    <t>¥4,489</t>
   </si>
   <si>
-    <t>¥-510</t>
+    <t>¥-511</t>
   </si>
   <si>
     <t>早川舞</t>
@@ -318,13 +327,13 @@
     <t>中村智子</t>
   </si>
   <si>
-    <t>¥5,388</t>
+    <t>¥5,387</t>
   </si>
   <si>
     <t>¥6,000</t>
   </si>
   <si>
-    <t>¥-612</t>
+    <t>¥-613</t>
   </si>
   <si>
     <t>久保慶子</t>
@@ -333,13 +342,13 @@
     <t>米村亜希子</t>
   </si>
   <si>
-    <t>¥7,184</t>
+    <t>¥7,183</t>
   </si>
   <si>
     <t>¥8,000</t>
   </si>
   <si>
-    <t>¥-816</t>
+    <t>¥-817</t>
   </si>
   <si>
     <t>土井美矢子</t>
@@ -366,13 +375,13 @@
     <t>丸田みわ子</t>
   </si>
   <si>
-    <t>¥16,163</t>
+    <t>¥16,162</t>
   </si>
   <si>
     <t>¥18,000</t>
   </si>
   <si>
-    <t>¥-1,837</t>
+    <t>¥-1,838</t>
   </si>
   <si>
     <t>齋藤友快</t>
@@ -390,13 +399,13 @@
     <t>浜田ブリトニー</t>
   </si>
   <si>
-    <t>¥35,916</t>
+    <t>¥35,915</t>
   </si>
   <si>
     <t>¥40,000</t>
   </si>
   <si>
-    <t>¥-4,084</t>
+    <t>¥-4,085</t>
   </si>
   <si>
     <t>田中愛</t>
@@ -2168,7 +2177,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -2277,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -2407,7 +2416,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -2416,7 +2425,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -3036,7 +3045,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -3098,7 +3107,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -3160,7 +3169,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -3349,7 +3358,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -3458,7 +3467,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -3588,7 +3597,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -3597,7 +3606,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -4217,7 +4226,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -4279,7 +4288,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -4341,7 +4350,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -4530,7 +4539,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -4639,7 +4648,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -4769,7 +4778,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -4778,7 +4787,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -5398,7 +5407,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -5460,7 +5469,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -5522,7 +5531,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -5711,7 +5720,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -5820,7 +5829,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -5950,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -5959,7 +5968,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -6579,7 +6588,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -6641,7 +6650,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -6703,7 +6712,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -6892,7 +6901,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -7001,7 +7010,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -7822,7 +7831,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -7884,7 +7893,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -8073,7 +8082,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -8182,7 +8191,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -9003,7 +9012,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -9065,7 +9074,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -9254,7 +9263,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -9363,7 +9372,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -9493,7 +9502,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -9502,7 +9511,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -10122,7 +10131,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -10184,7 +10193,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -10246,7 +10255,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -10435,7 +10444,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -10544,7 +10553,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -11365,7 +11374,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -11427,7 +11436,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -11616,7 +11625,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -11725,7 +11734,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -11864,7 +11873,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -12484,7 +12493,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -12546,7 +12555,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -12608,7 +12617,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -12797,7 +12806,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -12906,7 +12915,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -13045,7 +13054,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -13665,7 +13674,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -13727,7 +13736,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -13789,7 +13798,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -14878,7 +14887,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>19</v>
@@ -14911,7 +14920,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -15162,7 +15171,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -15271,7 +15280,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -15401,7 +15410,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -15410,7 +15419,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -16030,7 +16039,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -16092,7 +16101,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -16154,7 +16163,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -16343,7 +16352,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -16452,7 +16461,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -17273,7 +17282,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -17335,7 +17344,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -17524,7 +17533,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -17633,7 +17642,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -17772,7 +17781,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -18392,7 +18401,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -18454,7 +18463,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -18516,7 +18525,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -18705,7 +18714,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -18814,7 +18823,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -19635,7 +19644,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -19697,7 +19706,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -19886,7 +19895,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -19995,7 +20004,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -20134,7 +20143,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -20754,7 +20763,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -20816,7 +20825,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -20878,7 +20887,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -21067,7 +21076,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -21176,7 +21185,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -21315,7 +21324,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -21935,7 +21944,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -21997,7 +22006,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -22059,7 +22068,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -22248,7 +22257,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -22357,7 +22366,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -22487,7 +22496,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -22496,7 +22505,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -23116,7 +23125,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -23178,7 +23187,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -23240,7 +23249,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -23429,7 +23438,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -23538,7 +23547,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -23677,7 +23686,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -24297,7 +24306,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -24359,7 +24368,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -24421,7 +24430,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -24610,7 +24619,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -24719,7 +24728,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -24858,7 +24867,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -25478,7 +25487,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -25540,7 +25549,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -25602,7 +25611,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -25791,7 +25800,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -25900,7 +25909,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -26039,7 +26048,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -26659,7 +26668,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -26721,7 +26730,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -26783,7 +26792,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -26972,7 +26981,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -27081,7 +27090,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -27211,7 +27220,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -27220,7 +27229,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -27840,7 +27849,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -27869,7 +27878,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>19</v>
@@ -27902,7 +27911,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -27964,7 +27973,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -28153,7 +28162,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -28262,7 +28271,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -28401,7 +28410,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -29021,7 +29030,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -29083,7 +29092,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -29145,7 +29154,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -29334,7 +29343,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -29443,7 +29452,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -29582,7 +29591,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -30202,7 +30211,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -30264,7 +30273,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -30326,7 +30335,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -30515,7 +30524,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -30624,7 +30633,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -30763,7 +30772,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -31383,7 +31392,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -31445,7 +31454,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -31507,7 +31516,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -31696,7 +31705,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -31805,7 +31814,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -31935,7 +31944,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -31944,7 +31953,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -32564,7 +32573,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -32626,7 +32635,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -32688,7 +32697,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -32877,7 +32886,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -32986,7 +32995,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -33807,7 +33816,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -33869,7 +33878,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -34058,7 +34067,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -34167,7 +34176,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -34306,7 +34315,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -34926,7 +34935,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -34988,7 +34997,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -35050,7 +35059,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -35239,7 +35248,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -35348,7 +35357,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -35487,7 +35496,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -36107,7 +36116,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -36169,7 +36178,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -36231,7 +36240,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -36420,7 +36429,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -36529,7 +36538,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -36668,7 +36677,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -37288,7 +37297,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -37350,7 +37359,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -37412,7 +37421,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -37601,7 +37610,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -37710,7 +37719,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -38531,7 +38540,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -38593,7 +38602,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -38782,7 +38791,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -38891,7 +38900,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -39030,7 +39039,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -39650,7 +39659,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -39712,7 +39721,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -39774,7 +39783,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -39963,7 +39972,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -39977,7 +39986,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -40075,7 +40084,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -40205,7 +40214,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -40214,7 +40223,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -40834,7 +40843,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -40896,7 +40905,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -40958,7 +40967,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -41147,7 +41156,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -41259,7 +41268,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -42080,7 +42089,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -42142,7 +42151,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -42331,7 +42340,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -42345,7 +42354,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -42443,7 +42452,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -42573,7 +42582,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -42582,7 +42591,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -43202,7 +43211,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -43264,7 +43273,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -43326,7 +43335,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -43515,7 +43524,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -43624,7 +43633,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -43754,7 +43763,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -43763,7 +43772,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -44383,7 +44392,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -44445,7 +44454,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -44507,7 +44516,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -44696,7 +44705,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -44805,7 +44814,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -44944,7 +44953,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -45564,7 +45573,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -45626,7 +45635,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -45688,7 +45697,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
@@ -45877,7 +45886,7 @@
     </row>
     <row r="10" spans="1:17" ht="15">
       <c r="Q10" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -45986,7 +45995,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>3</v>
@@ -46116,7 +46125,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>19</v>
@@ -46125,7 +46134,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>19</v>
@@ -46745,7 +46754,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>19</v>
@@ -46807,7 +46816,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>19</v>
@@ -46869,7 +46878,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>19</v>
